--- a/Original Excel Files/B720-785.xlsx
+++ b/Original Excel Files/B720-785.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F1872-6B62-443D-8F3B-AD1DD5A61879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,9 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -161,6 +161,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +180,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +264,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,200 +508,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:G19"/>
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D3" s="11">
         <v>1956</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1956</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1956</v>
+        <v>1969</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <v>1969</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1969</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2">
+      <c r="D7" s="1">
         <v>1958</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1990</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1990</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>1990</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1990</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D12" s="5">
         <v>1998</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="D13" s="7">
         <v>1966</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1966</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1966</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -666,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Original Excel Files/B720-785.xlsx
+++ b/Original Excel Files/B720-785.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F1872-6B62-443D-8F3B-AD1DD5A61879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31960ED-0EA2-46A8-929F-74F565EC39A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,69 +17,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>B720 .F7 1956</t>
   </si>
   <si>
-    <t>Fremantle, Anne</t>
-  </si>
-  <si>
     <t>The Age of Belief: the Medieval Philosophers</t>
   </si>
   <si>
     <t>B720 .W5</t>
   </si>
   <si>
-    <t>John, Wippel F. ed. and Allan B. Wolter ed.</t>
-  </si>
-  <si>
     <t>Medieval Philosophy from St. Augustine to Nicholas of Cusa</t>
   </si>
   <si>
     <t>B721 .L4 1958</t>
   </si>
   <si>
-    <t>Leff</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
     <t>Medieval Thought: St. Augustine to Ockham</t>
   </si>
   <si>
     <t>B755 .S572</t>
   </si>
   <si>
-    <t>Sirat, Colette</t>
-  </si>
-  <si>
     <t>A History of Jewish Philosophy in the Middle Ages</t>
   </si>
   <si>
     <t>B765 .A82 E54</t>
   </si>
   <si>
-    <t>Hopkins, Jasper and Richardson, Herbert eds.</t>
-  </si>
-  <si>
     <t>Anselm of Canterbury: Why God Became Man</t>
   </si>
   <si>
     <t>B770 .P6</t>
   </si>
   <si>
-    <t>Popkins, Richard H. ed.</t>
-  </si>
-  <si>
     <t>The Philosophy of the 16th and 17th Centuries</t>
   </si>
   <si>
-    <t>ed. Davies, Brian and Evans, G. R.</t>
-  </si>
-  <si>
     <t>Anselm of Canterbury: The Major Works</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -148,28 +133,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,208 +499,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
+      <c r="B2" s="7">
+        <v>1956</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
         <v>1956</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1956</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="9">
+        <v>1969</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="7">
+        <v>1969</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1969</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" s="10">
+        <v>1958</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1969</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9">
+        <v>1990</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1990</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
-        <v>1958</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B12" s="8">
+        <v>1966</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>1990</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
+      <c r="B13" s="7">
+        <v>1966</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
-        <v>1990</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1998</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1966</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1966</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I19">
-    <sortCondition ref="A1:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+    <sortCondition ref="A1:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
